--- a/data/trans_bre/P54_A_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -609,27 +609,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,71</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,09</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>18,66%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 10,92</t>
+          <t>-0,16; 10,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 19,14</t>
+          <t>6,76; 17,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,67; 18,46</t>
+          <t>9,68; 18,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 31,63</t>
+          <t>-0,39; 30,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 27,99</t>
+          <t>8,87; 25,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 25,88</t>
+          <t>12,69; 26,07</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,44</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 13,51</t>
+          <t>0,79; 13,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 18,4</t>
+          <t>4,18; 15,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 12,47</t>
+          <t>2,86; 12,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 39,54</t>
+          <t>2,39; 40,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 27,43</t>
+          <t>5,43; 22,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 16,35</t>
+          <t>3,54; 16,49</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,34%</t>
+          <t>60,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 26,77</t>
+          <t>0,91; 26,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 22,63</t>
+          <t>-7,32; 14,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 15,48</t>
+          <t>-2,51; 15,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 150,54</t>
+          <t>-1,56; 141,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 35,7</t>
+          <t>-8,83; 20,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 21,74</t>
+          <t>-3,02; 21,66</t>
         </is>
       </c>
     </row>
@@ -849,27 +849,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>13,76%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 10,81</t>
+          <t>3,19; 11,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 16,21</t>
+          <t>6,85; 14,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 13,62</t>
+          <t>7,63; 13,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 31,32</t>
+          <t>8,18; 32,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 23,37</t>
+          <t>9,11; 20,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 18,27</t>
+          <t>9,69; 17,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,83</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,56%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>17,13%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,66%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.17673585256469</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.79814052863585</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>13.67886415442665</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1355944219069124</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1763599766866121</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1843409642644561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 10,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,76; 17,76</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,68; 18,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,39; 30,35</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>8,87; 25,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>12,69; 26,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.1561103226638871</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7.264669759227615</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>9.382832236933586</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.003918126885412669</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.09440195302686027</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.1219417657249658</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.69668877905977</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.49766752578447</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.53520968752618</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3034563711641883</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.2733592187764767</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.25850476858966</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,88%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 13,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,18; 15,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 12,58</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 40,22</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 22,68</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 16,49</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.422447779834723</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.02169994520284</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.191669976432003</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1987950235598219</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1351805864690521</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1027550491868064</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>15,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>60,27%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,48%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.7921437321079541</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.224948210860475</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.24564666950954</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.02389154763115798</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.05436583763278938</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.04129918987651221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 26,17</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,32; 14,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 15,52</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 141,02</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 20,4</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 21,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.31084102211867</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.759162233285</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.99512693389632</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.402152411889303</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.228283800960522</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1706944630802947</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,161 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,26</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,59</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,72%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,76%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>15.04888821099811</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.140343679364216</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.656866676713202</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.6027454842514176</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.125989908305748</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.08456232227766498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 11,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,85; 14,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 13,27</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>8,18; 32,7</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>9,11; 20,15</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>9,69; 17,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.9101982453500435</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.714459439547445</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.952751110782676</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.01562211954922139</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.0327424929062974</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.02245054033089936</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.17180606087149</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>22.170217680161</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.72424103635453</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.41023469012288</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3523415217164179</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2341097809542415</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.170091624906627</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.30117274403413</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.66371577637801</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1971874244794301</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1544047492645636</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.13857302990529</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.189417878007375</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.824523736124444</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>7.689744921559226</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.08178022962137699</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.103139852044365</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.0972536579520982</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.2385256787296</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.29806599521494</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>13.42265689273193</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3269782627984281</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2183426066844741</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1786873867243074</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +938,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
